--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>482918.5584155135</v>
+        <v>506850.5914291597</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5573252.270349382</v>
+        <v>5573252.270349381</v>
       </c>
     </row>
     <row r="11">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>87.20907807295006</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>29.58380601356595</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,70 +893,70 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>241.0142888776591</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>40.01994531875577</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>133.5359977111925</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,16 +1069,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,73 +1130,73 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D8" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>73.82433198599615</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>89.70401384132538</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,23 +1367,23 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="E11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C11" t="n">
+      <c r="F11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D11" t="n">
+      <c r="G11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E11" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>85.72024486005427</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>32.59406471070924</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,70 +1604,70 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C14" t="n">
+      <c r="V14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>230.8744955960827</v>
-      </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>143.504946809361</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>87.68958101214699</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1743,16 +1743,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>19.15541836171557</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,13 +1974,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>147.2379120664689</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>69.03881051849277</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>125.2226902263468</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="F24" t="n">
-        <v>79.73605578874087</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -2454,7 +2454,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,76 +2552,76 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>40.47627913313517</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,25 +2631,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>56.91690033700354</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>7.077808277862171</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2834,19 +2834,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,31 +2868,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0138558615894101</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,22 +3035,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>212.2853856434421</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3086,10 +3086,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>108.4947089277731</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="34">
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,70 +3266,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>133.4269036908112</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>37.18582309281555</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3591,13 +3591,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>40.17257470425444</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>118.7764738957966</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3664,70 +3664,70 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3755,52 +3755,52 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>17.01742621531828</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,25 +4022,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4074,10 +4074,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>189.6723709928539</v>
       </c>
       <c r="V45" t="n">
-        <v>192.7150582403054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4355,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>756.2968567456824</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C3" t="n">
-        <v>756.2968567456824</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>195.6983334202631</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>195.6983334202631</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>49.16377544714803</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>49.16377544714803</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4446,13 +4446,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4483,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
         <v>19.28114311021272</v>
@@ -4601,16 +4601,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>380.6929175551172</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C6" t="n">
-        <v>206.2398882739901</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D6" t="n">
-        <v>206.2398882739901</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
         <v>19.28114311021272</v>
@@ -4647,19 +4647,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>554.5854353412691</v>
       </c>
       <c r="U6" t="n">
-        <v>588.4532163200711</v>
+        <v>554.5854353412691</v>
       </c>
       <c r="V6" t="n">
-        <v>588.4532163200711</v>
+        <v>554.5854353412691</v>
       </c>
       <c r="W6" t="n">
-        <v>588.4532163200711</v>
+        <v>554.5854353412691</v>
       </c>
       <c r="X6" t="n">
-        <v>588.4532163200711</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="Y6" t="n">
-        <v>380.6929175551172</v>
+        <v>346.7339351357363</v>
       </c>
     </row>
     <row r="7">
@@ -4702,28 +4702,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C8" t="n">
         <v>233.7108255783361</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F8" t="n">
         <v>19.28114311021272</v>
@@ -4841,13 +4841,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>492.48569440222</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C9" t="n">
-        <v>492.48569440222</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D9" t="n">
-        <v>492.48569440222</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="E9" t="n">
-        <v>417.9156620931329</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="F9" t="n">
-        <v>271.3811041200179</v>
+        <v>338.9217126616785</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>200.190887244294</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4884,13 +4884,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>660.701031422288</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>660.701031422288</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X9" t="n">
-        <v>660.701031422288</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y9" t="n">
-        <v>660.701031422288</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="10">
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D11" t="n">
-        <v>223.6192102101089</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C12" t="n">
-        <v>789.6041262295092</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D12" t="n">
-        <v>640.669716568258</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E12" t="n">
-        <v>481.4322615628025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>196.166878172303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5121,19 +5121,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5145,25 +5145,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>931.1338578230511</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
         <v>19.28114311021272</v>
@@ -5233,16 +5233,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5300,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>277.6047704292607</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C15" t="n">
-        <v>277.6047704292607</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D15" t="n">
-        <v>277.6047704292607</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="E15" t="n">
-        <v>277.6047704292607</v>
+        <v>254.3910354390318</v>
       </c>
       <c r="F15" t="n">
-        <v>132.6502787026334</v>
+        <v>107.8564774659168</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>107.8564774659168</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5364,7 +5364,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
         <v>613.2059550252818</v>
@@ -5391,16 +5391,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>485.4562706347935</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>277.6047704292607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>277.6047704292607</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5461,25 +5461,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5543,22 +5543,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.334904905842</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C18" t="n">
-        <v>110.334904905842</v>
+        <v>346.8019152129958</v>
       </c>
       <c r="D18" t="n">
-        <v>110.334904905842</v>
+        <v>197.8675055517446</v>
       </c>
       <c r="E18" t="n">
-        <v>110.334904905842</v>
+        <v>38.63005054628906</v>
       </c>
       <c r="F18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,19 +5598,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5622,22 +5622,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V18" t="n">
-        <v>110.334904905842</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W18" t="n">
-        <v>110.334904905842</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X18" t="n">
-        <v>110.334904905842</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.334904905842</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="19">
@@ -5701,7 +5701,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="G20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5792,10 +5792,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>89.01731535111452</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5832,19 +5832,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>178.8501590306595</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>837.5695896254374</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X21" t="n">
-        <v>257.2326523711826</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y21" t="n">
-        <v>257.2326523711826</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E23" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="F23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="G23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>259.0600686093459</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C24" t="n">
-        <v>259.0600686093459</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D24" t="n">
-        <v>259.0600686093459</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E24" t="n">
-        <v>99.82261360389037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6072,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>259.0600686093459</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W24" t="n">
-        <v>259.0600686093459</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X24" t="n">
-        <v>259.0600686093459</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y24" t="n">
-        <v>259.0600686093459</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="25">
@@ -6166,16 +6166,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>447.97144466011</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>299.0370349988588</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>139.7995799934033</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W27" t="n">
-        <v>492.3847606029253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X27" t="n">
-        <v>284.5332603973924</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y27" t="n">
-        <v>76.77296163243852</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>567.6182002269572</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C30" t="n">
-        <v>567.60420440717</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="D30" t="n">
-        <v>418.6697947459187</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="E30" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6546,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6573,19 +6573,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>735.8335372470253</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>735.8335372470253</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y30" t="n">
-        <v>735.8335372470253</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>277.8061678500227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>277.8061678500227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>128.8717581887714</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>128.8717581887714</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6786,43 +6786,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>446.0215048700907</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>446.0215048700907</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>446.0215048700907</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>325.7766548071333</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>82.32787816303323</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>569.2254314512334</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>569.2254314512334</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>178.5185981156682</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C36" t="n">
-        <v>178.5185981156682</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7023,7 +7023,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
         <v>473.4149733950735</v>
@@ -7050,16 +7050,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="X36" t="n">
-        <v>521.0535470733607</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y36" t="n">
-        <v>313.2932483084068</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>178.5185981156682</v>
+        <v>332.4660919952146</v>
       </c>
       <c r="C39" t="n">
-        <v>178.5185981156682</v>
+        <v>332.4660919952146</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>332.4660919952146</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>173.2286369897591</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7254,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>844.0809192522559</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>641.8943246110218</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>413.6707063474109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>178.5185981156682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>178.5185981156682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X39" t="n">
-        <v>178.5185981156682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y39" t="n">
-        <v>178.5185981156682</v>
+        <v>500.6814290152826</v>
       </c>
     </row>
     <row r="40">
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
         <v>19.28114311021272</v>
@@ -7375,7 +7375,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7409,7 +7409,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K41" t="n">
         <v>122.2961490211351</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V41" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W41" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>23.90796037760316</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C42" t="n">
-        <v>23.90796037760316</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D42" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7494,46 +7494,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>23.90796037760316</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W42" t="n">
-        <v>23.90796037760316</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X42" t="n">
-        <v>23.90796037760316</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y42" t="n">
-        <v>23.90796037760316</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7670,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U44" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V44" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7749,28 +7749,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V45" t="n">
-        <v>769.3954805204287</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W45" t="n">
-        <v>525.9467038763287</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X45" t="n">
-        <v>318.0952036707959</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,10 +8307,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133073</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9012,10 +9012,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>312.5030352242461</v>
@@ -9246,7 +9246,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9255,13 +9255,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7352039419416</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9495,7 +9495,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9720,22 +9720,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,19 +10434,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>174.6270615612551</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,10 +10671,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11142,22 +11142,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22568,7 +22568,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>8.683973297415827</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22623,31 +22623,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>60.23598749168869</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>82.65163822293052</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22686,7 +22686,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22841,10 +22841,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>128.71681180081</v>
@@ -22860,19 +22860,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>117.6251351366452</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22908,13 +22908,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>66.62873098362914</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22926,10 +22926,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22942,7 +22942,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22957,16 +22957,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>144.6688768646272</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23018,19 +23018,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23081,10 +23081,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23106,7 +23106,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>83.82074846940479</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -23115,10 +23115,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>22.53143039517109</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23145,22 +23145,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23176,7 +23176,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>49.36645333167576</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23218,10 +23218,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23230,7 +23230,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E11" t="n">
-        <v>179.6356836433646</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23334,28 +23334,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>26.5151993764422</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23385,10 +23385,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>139.0891063931286</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23434,7 +23434,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23473,7 +23473,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23510,13 +23510,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>108.6003065196844</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,22 +23540,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,25 +23571,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.564265584022877</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>24.54586322434947</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23631,16 +23631,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23677,7 +23677,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>113.0991222774871</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23738,16 +23738,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23783,13 +23783,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>97.54843351316518</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,19 +23808,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>125.9137940316683</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23829,10 +23829,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,13 +23862,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>85.56267508295639</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23941,10 +23941,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,16 +23966,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,7 +23984,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,7 +24057,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>76.03040187489111</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24099,22 +24099,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>74.94203846847478</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24190,10 +24190,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,16 +24212,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24251,7 +24251,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24260,7 +24260,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>188.9293852055442</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24291,10 +24291,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>52.90669720804131</v>
       </c>
       <c r="F24" t="n">
-        <v>65.33315660464301</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24342,7 +24342,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24406,7 +24406,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,10 +24485,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>308.7646895842778</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,25 +24519,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>109.6162833128638</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>137.9914041155217</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24570,25 +24570,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24683,7 +24683,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24722,19 +24722,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,31 +24756,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.6946431267263</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>47.49529702573832</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24813,19 +24813,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24923,22 +24923,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>169.6449844288197</v>
+        <v>191.5849729979769</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24974,10 +24974,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,19 +24993,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>36.57450346561077</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="34">
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="35">
@@ -25154,13 +25154,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E35" t="n">
-        <v>319.5141023699695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25199,7 +25199,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25211,13 +25211,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>33.10627995905614</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25290,10 +25290,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>214.5091600681041</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="38">
@@ -25397,16 +25397,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25436,22 +25436,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>146.6038018839531</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25479,13 +25479,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>104.8966376891294</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25518,10 +25518,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>52.90669720804127</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25628,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,7 +25643,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25682,13 +25682,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,13 +25704,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25725,7 +25725,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>84.81608375669855</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>188.7555589881592</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25843,7 +25843,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25877,7 +25877,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25910,25 +25910,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>285.3113128993078</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25962,10 +25962,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25989,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>36.26901108812089</v>
       </c>
       <c r="V45" t="n">
-        <v>40.08552890911983</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481985.0402310077</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481985.0402310079</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
   </sheetData>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32513.31440880971</v>
+        <v>-29652.91916435759</v>
       </c>
       <c r="C6" t="n">
-        <v>48256.117122738</v>
+        <v>51116.51236719015</v>
       </c>
       <c r="D6" t="n">
-        <v>48256.117122738</v>
+        <v>51116.51236719016</v>
       </c>
       <c r="E6" t="n">
-        <v>81883.71712273807</v>
+        <v>84744.11236719019</v>
       </c>
       <c r="F6" t="n">
-        <v>81883.71712273803</v>
+        <v>84744.11236719019</v>
       </c>
       <c r="G6" t="n">
-        <v>81883.71712273805</v>
+        <v>84744.11236719019</v>
       </c>
       <c r="H6" t="n">
-        <v>81883.71712273802</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="I6" t="n">
-        <v>81883.71712273803</v>
+        <v>84744.11236719014</v>
       </c>
       <c r="J6" t="n">
-        <v>18823.7745236318</v>
+        <v>21684.16976808394</v>
       </c>
       <c r="K6" t="n">
-        <v>81883.71712273802</v>
+        <v>84744.11236719022</v>
       </c>
       <c r="L6" t="n">
-        <v>81883.71712273802</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="M6" t="n">
-        <v>81883.71712273803</v>
+        <v>84744.1123671902</v>
       </c>
       <c r="N6" t="n">
-        <v>81883.717122738</v>
+        <v>84744.11236719014</v>
       </c>
       <c r="O6" t="n">
-        <v>81883.71712273802</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="P6" t="n">
-        <v>81883.71712273805</v>
+        <v>84744.11236719016</v>
       </c>
     </row>
   </sheetData>
@@ -34708,7 +34708,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O3" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,10 +35027,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35182,7 +35182,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>99.81127712997396</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35422,7 +35422,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>169.9067907798016</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35975,13 +35975,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36215,7 +36215,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36440,22 +36440,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>43.28534947792182</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N36" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
